--- a/models/calculation engines/cbix2/outputs/capesize/workings_for_viu_adjustmnet_of_specific_index/specific_index_ViU_calculation_index_bauxite_details.xlsx
+++ b/models/calculation engines/cbix2/outputs/capesize/workings_for_viu_adjustmnet_of_specific_index/specific_index_ViU_calculation_index_bauxite_details.xlsx
@@ -488,7 +488,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25.4579489296036</v>
+        <v>25.45794892960361</v>
       </c>
       <c r="B2" t="n">
         <v>0.54</v>
@@ -497,7 +497,7 @@
         <v>0.3725</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="E2" t="n">
         <v>0.0675</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>41.81675633392202</v>
+        <v>41.81675633392203</v>
       </c>
       <c r="B12" t="n">
         <v>0.54</v>
@@ -837,7 +837,7 @@
         <v>0.3725</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="E12" t="n">
         <v>0.0675</v>
@@ -871,7 +871,7 @@
         <v>0.3725</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="E13" t="n">
         <v>0.0675</v>
